--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:06:08+00:00</t>
+    <t>2022-01-10T15:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3957" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3957" uniqueCount="282">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T15:11:55+00:00</t>
+    <t>2022-01-25T14:39:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -882,6 +882,9 @@
   </si>
   <si>
     <t>Observation[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse/$generateHealthCertificate</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -6585,7 +6588,7 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>76</v>
@@ -10115,7 +10118,7 @@
         <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>76</v>
@@ -12135,7 +12138,7 @@
         <v>76</v>
       </c>
       <c r="R99" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>76</v>
@@ -13632,7 +13635,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13655,19 +13658,19 @@
         <v>79</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>76</v>
@@ -13716,7 +13719,7 @@
         <v>76</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T14:39:04+00:00</t>
+    <t>2022-01-31T16:29:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T16:29:45+00:00</t>
+    <t>2022-01-31T20:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T20:10:04+00:00</t>
+    <t>2022-02-11T00:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T00:28:19+00:00</t>
+    <t>2022-02-11T01:45:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T01:45:45+00:00</t>
+    <t>2022-02-13T22:11:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-13T22:11:31+00:00</t>
+    <t>2022-03-01T19:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T19:29:42+00:00</t>
+    <t>2022-03-04T23:14:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T23:14:40+00:00</t>
+    <t>2022-03-05T00:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T00:52:55+00:00</t>
+    <t>2022-03-05T01:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:03:34+00:00</t>
+    <t>2022-03-05T01:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:09:46+00:00</t>
+    <t>2022-03-18T16:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T16:50:55+00:00</t>
+    <t>2022-03-19T18:10:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:10:29+00:00</t>
+    <t>2022-03-19T18:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:27:00+00:00</t>
+    <t>2022-03-20T18:26:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T18:26:18+00:00</t>
+    <t>2022-03-20T19:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T19:00:26+00:00</t>
+    <t>2022-03-21T17:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T17:45:13+00:00</t>
+    <t>2022-03-21T18:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T18:09:33+00:00</t>
+    <t>2022-03-22T20:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:54:15+00:00</t>
+    <t>2022-03-23T00:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:01:05+00:00</t>
+    <t>2022-03-23T00:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:19:03+00:00</t>
+    <t>2022-03-23T00:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:33:43+00:00</t>
+    <t>2022-03-23T18:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T18:40:06+00:00</t>
+    <t>2022-03-23T19:11:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:11:09+00:00</t>
+    <t>2022-03-23T19:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:27:55+00:00</t>
+    <t>2022-03-23T20:20:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:20:45+00:00</t>
+    <t>2022-03-23T20:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:39:07+00:00</t>
+    <t>2022-03-23T21:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T21:03:35+00:00</t>
+    <t>2022-03-24T19:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:03:35+00:00</t>
+    <t>2022-03-24T19:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:25:05+00:00</t>
+    <t>2022-03-24T20:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:10:48+00:00</t>
+    <t>2022-03-24T20:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:26:37+00:00</t>
+    <t>2022-03-26T21:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:07:52+00:00</t>
+    <t>2022-03-26T21:44:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:44:34+00:00</t>
+    <t>2022-03-26T21:58:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:58:42+00:00</t>
+    <t>2022-03-26T22:00:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T22:00:49+00:00</t>
+    <t>2022-03-28T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T14:06:51+00:00</t>
+    <t>2022-03-28T17:18:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T17:18:58+00:00</t>
+    <t>2022-03-28T18:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T18:48:26+00:00</t>
+    <t>2022-03-28T20:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T20:08:43+00:00</t>
+    <t>2022-03-28T23:34:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:34:19+00:00</t>
+    <t>2022-03-28T23:45:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:45:02+00:00</t>
+    <t>2022-03-28T23:47:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:47:33+00:00</t>
+    <t>2022-03-29T00:49:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T00:49:23+00:00</t>
+    <t>2022-03-29T01:03:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:03:03+00:00</t>
+    <t>2022-03-29T01:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:33:50+00:00</t>
+    <t>2022-03-29T22:51:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T22:51:35+00:00</t>
+    <t>2022-03-30T04:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T04:10:02+00:00</t>
+    <t>2022-03-30T05:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:07:06+00:00</t>
+    <t>2022-03-30T05:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:24:10+00:00</t>
+    <t>2022-03-30T15:00:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:00:01+00:00</t>
+    <t>2022-03-30T20:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T20:32:02+00:00</t>
+    <t>2022-03-31T03:49:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T03:49:14+00:00</t>
+    <t>2022-03-31T04:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:31:26+00:00</t>
+    <t>2022-03-31T04:46:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:46:55+00:00</t>
+    <t>2022-03-31T06:22:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:22:16+00:00</t>
+    <t>2022-03-31T06:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:42:10+00:00</t>
+    <t>2022-04-26T17:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T17:07:52+00:00</t>
+    <t>2022-05-27T14:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T14:27:29+00:00</t>
+    <t>2022-06-01T13:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3957" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3957" uniqueCount="283">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:01:08+00:00</t>
+    <t>2022-09-27T20:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,7 +277,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -477,6 +477,10 @@
   </si>
   <si>
     <t>Bundle.link.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1232,44 +1236,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.1484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="31.30078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="39.0078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.15234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="31.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.95703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="168.1875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="168.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="28.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="42.97265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="42.9765625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2523,13 +2527,13 @@
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2580,7 +2584,7 @@
         <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -2598,7 +2602,7 @@
         <v>76</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>76</v>
@@ -2609,11 +2613,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2632,16 +2636,16 @@
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2691,7 +2695,7 @@
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -2703,13 +2707,13 @@
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>76</v>
@@ -2720,11 +2724,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2743,19 +2747,19 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>76</v>
@@ -2804,7 +2808,7 @@
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -2816,7 +2820,7 @@
         <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>76</v>
@@ -2833,7 +2837,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2856,13 +2860,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2913,7 +2917,7 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>85</v>
@@ -2942,7 +2946,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2968,10 +2972,10 @@
         <v>98</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3022,7 +3026,7 @@
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>85</v>
@@ -3051,7 +3055,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3077,10 +3081,10 @@
         <v>142</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3119,17 +3123,17 @@
         <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3141,7 +3145,7 @@
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>76</v>
@@ -3158,7 +3162,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3181,13 +3185,13 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3238,7 +3242,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3256,7 +3260,7 @@
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3267,11 +3271,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3290,16 +3294,16 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3349,7 +3353,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3361,13 +3365,13 @@
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -3378,11 +3382,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3401,19 +3405,19 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -3462,7 +3466,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3474,7 +3478,7 @@
         <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>76</v>
@@ -3491,7 +3495,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3517,10 +3521,10 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3571,7 +3575,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3600,7 +3604,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3626,13 +3630,13 @@
         <v>98</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3682,7 +3686,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -3711,7 +3715,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3734,13 +3738,13 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3791,7 +3795,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -3820,7 +3824,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3846,10 +3850,10 @@
         <v>142</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3900,7 +3904,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -3909,7 +3913,7 @@
         <v>85</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>96</v>
@@ -3929,7 +3933,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3952,13 +3956,13 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4009,7 +4013,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4027,7 +4031,7 @@
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4038,11 +4042,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4061,16 +4065,16 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4120,7 +4124,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4132,13 +4136,13 @@
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4149,11 +4153,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4172,19 +4176,19 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
@@ -4233,7 +4237,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4245,7 +4249,7 @@
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>76</v>
@@ -4262,7 +4266,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4288,13 +4292,13 @@
         <v>104</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4323,10 +4327,10 @@
         <v>124</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>76</v>
@@ -4344,7 +4348,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4373,7 +4377,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4396,16 +4400,16 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4455,7 +4459,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4484,7 +4488,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4510,10 +4514,10 @@
         <v>142</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4564,7 +4568,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4573,7 +4577,7 @@
         <v>85</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>96</v>
@@ -4593,7 +4597,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4616,13 +4620,13 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4673,7 +4677,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4691,7 +4695,7 @@
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4702,11 +4706,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4725,16 +4729,16 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4784,7 +4788,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -4796,13 +4800,13 @@
         <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -4813,11 +4817,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4836,19 +4840,19 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>76</v>
@@ -4897,7 +4901,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -4909,7 +4913,7 @@
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>76</v>
@@ -4926,7 +4930,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4952,10 +4956,10 @@
         <v>104</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4985,10 +4989,10 @@
         <v>124</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>76</v>
@@ -5006,7 +5010,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>85</v>
@@ -5035,7 +5039,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5061,13 +5065,13 @@
         <v>98</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5117,7 +5121,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>85</v>
@@ -5146,7 +5150,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5169,13 +5173,13 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5226,7 +5230,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5255,7 +5259,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5281,10 +5285,10 @@
         <v>129</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5335,7 +5339,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5364,7 +5368,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5387,13 +5391,13 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5444,7 +5448,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -5473,7 +5477,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5496,13 +5500,13 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5553,7 +5557,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -5582,7 +5586,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5608,10 +5612,10 @@
         <v>142</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5662,7 +5666,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -5671,7 +5675,7 @@
         <v>85</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>96</v>
@@ -5691,7 +5695,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5714,13 +5718,13 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5771,7 +5775,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -5789,7 +5793,7 @@
         <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -5800,11 +5804,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5823,16 +5827,16 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5882,7 +5886,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -5894,13 +5898,13 @@
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -5911,11 +5915,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5934,19 +5938,19 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -5995,7 +5999,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6007,7 +6011,7 @@
         <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>76</v>
@@ -6024,7 +6028,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6047,13 +6051,13 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6104,7 +6108,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>85</v>
@@ -6133,7 +6137,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6159,10 +6163,10 @@
         <v>98</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6213,7 +6217,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6242,7 +6246,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6265,16 +6269,16 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6324,7 +6328,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6353,7 +6357,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6379,13 +6383,13 @@
         <v>129</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6435,7 +6439,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -6464,7 +6468,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6487,16 +6491,16 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6546,7 +6550,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -6575,10 +6579,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>76</v>
@@ -6603,10 +6607,10 @@
         <v>142</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6657,7 +6661,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -6669,7 +6673,7 @@
         <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>76</v>
@@ -6686,7 +6690,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6709,13 +6713,13 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6766,7 +6770,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -6784,7 +6788,7 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -6795,11 +6799,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6818,16 +6822,16 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -6877,7 +6881,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -6889,13 +6893,13 @@
         <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -6906,11 +6910,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6929,19 +6933,19 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
@@ -6990,7 +6994,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7002,7 +7006,7 @@
         <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>76</v>
@@ -7019,7 +7023,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7045,10 +7049,10 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7099,7 +7103,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7128,7 +7132,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7154,13 +7158,13 @@
         <v>98</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7210,7 +7214,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7239,7 +7243,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7262,16 +7266,16 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7321,7 +7325,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -7336,10 +7340,10 @@
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
@@ -7350,7 +7354,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7376,10 +7380,10 @@
         <v>142</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7430,7 +7434,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -7439,7 +7443,7 @@
         <v>85</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>96</v>
@@ -7459,7 +7463,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7482,13 +7486,13 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7539,7 +7543,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -7557,7 +7561,7 @@
         <v>76</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
@@ -7568,11 +7572,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7591,16 +7595,16 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7650,7 +7654,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -7662,13 +7666,13 @@
         <v>76</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
@@ -7679,11 +7683,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7702,19 +7706,19 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>76</v>
@@ -7763,7 +7767,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -7775,7 +7779,7 @@
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>76</v>
@@ -7792,7 +7796,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7818,13 +7822,13 @@
         <v>104</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -7853,10 +7857,10 @@
         <v>124</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>76</v>
@@ -7874,7 +7878,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -7903,7 +7907,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7926,16 +7930,16 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -7985,7 +7989,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8014,7 +8018,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8040,10 +8044,10 @@
         <v>142</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8094,7 +8098,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8103,7 +8107,7 @@
         <v>85</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>96</v>
@@ -8123,7 +8127,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8146,13 +8150,13 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8203,7 +8207,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8221,7 +8225,7 @@
         <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
@@ -8232,11 +8236,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8255,16 +8259,16 @@
         <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8314,7 +8318,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -8326,13 +8330,13 @@
         <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>76</v>
@@ -8343,11 +8347,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8366,19 +8370,19 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>76</v>
@@ -8427,7 +8431,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -8439,7 +8443,7 @@
         <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>76</v>
@@ -8456,7 +8460,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8482,10 +8486,10 @@
         <v>104</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8497,7 +8501,7 @@
         <v>76</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>76</v>
@@ -8515,10 +8519,10 @@
         <v>124</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>76</v>
@@ -8536,7 +8540,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>85</v>
@@ -8565,7 +8569,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8591,13 +8595,13 @@
         <v>98</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8647,7 +8651,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>85</v>
@@ -8676,7 +8680,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8699,13 +8703,13 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8756,7 +8760,7 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -8785,7 +8789,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8811,10 +8815,10 @@
         <v>129</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8865,7 +8869,7 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -8894,7 +8898,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8917,13 +8921,13 @@
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8974,7 +8978,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9003,7 +9007,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9026,13 +9030,13 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9083,7 +9087,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9112,7 +9116,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9138,10 +9142,10 @@
         <v>142</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9192,7 +9196,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9201,7 +9205,7 @@
         <v>85</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>96</v>
@@ -9221,7 +9225,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9244,13 +9248,13 @@
         <v>76</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9301,7 +9305,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -9319,7 +9323,7 @@
         <v>76</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>76</v>
@@ -9330,11 +9334,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9353,16 +9357,16 @@
         <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9412,7 +9416,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -9424,13 +9428,13 @@
         <v>76</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>76</v>
@@ -9441,11 +9445,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9464,19 +9468,19 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>76</v>
@@ -9525,7 +9529,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -9537,7 +9541,7 @@
         <v>76</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>76</v>
@@ -9554,7 +9558,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9577,13 +9581,13 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9634,7 +9638,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>85</v>
@@ -9663,7 +9667,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9689,10 +9693,10 @@
         <v>98</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9743,7 +9747,7 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -9772,7 +9776,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9795,16 +9799,16 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -9854,7 +9858,7 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -9883,7 +9887,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9909,13 +9913,13 @@
         <v>129</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -9965,7 +9969,7 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -9994,7 +9998,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10017,16 +10021,16 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10076,7 +10080,7 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -10105,10 +10109,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>76</v>
@@ -10133,10 +10137,10 @@
         <v>142</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10187,7 +10191,7 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -10199,7 +10203,7 @@
         <v>76</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>76</v>
@@ -10216,7 +10220,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10239,13 +10243,13 @@
         <v>76</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10296,7 +10300,7 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -10314,7 +10318,7 @@
         <v>76</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>76</v>
@@ -10325,11 +10329,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10348,16 +10352,16 @@
         <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10407,7 +10411,7 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -10419,13 +10423,13 @@
         <v>76</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>76</v>
@@ -10436,11 +10440,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -10459,19 +10463,19 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>76</v>
@@ -10520,7 +10524,7 @@
         <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -10532,7 +10536,7 @@
         <v>76</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>76</v>
@@ -10549,7 +10553,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10575,10 +10579,10 @@
         <v>76</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10629,7 +10633,7 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -10658,7 +10662,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10684,13 +10688,13 @@
         <v>98</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -10740,7 +10744,7 @@
         <v>76</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -10769,11 +10773,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -10792,16 +10796,16 @@
         <v>76</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -10851,7 +10855,7 @@
         <v>76</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -10863,13 +10867,13 @@
         <v>76</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>76</v>
@@ -10880,7 +10884,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10906,10 +10910,10 @@
         <v>142</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -10960,7 +10964,7 @@
         <v>76</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -10969,7 +10973,7 @@
         <v>85</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>96</v>
@@ -10989,7 +10993,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11012,13 +11016,13 @@
         <v>76</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11069,7 +11073,7 @@
         <v>76</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -11087,7 +11091,7 @@
         <v>76</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>76</v>
@@ -11098,11 +11102,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11121,16 +11125,16 @@
         <v>76</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -11180,7 +11184,7 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -11192,13 +11196,13 @@
         <v>76</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>76</v>
@@ -11209,11 +11213,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11232,19 +11236,19 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>76</v>
@@ -11293,7 +11297,7 @@
         <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -11305,7 +11309,7 @@
         <v>76</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>76</v>
@@ -11322,7 +11326,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11348,13 +11352,13 @@
         <v>104</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -11383,10 +11387,10 @@
         <v>124</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>76</v>
@@ -11404,7 +11408,7 @@
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -11433,7 +11437,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11456,16 +11460,16 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -11515,7 +11519,7 @@
         <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -11544,7 +11548,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11570,10 +11574,10 @@
         <v>142</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11624,7 +11628,7 @@
         <v>76</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -11633,7 +11637,7 @@
         <v>85</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>96</v>
@@ -11653,7 +11657,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11676,13 +11680,13 @@
         <v>76</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11733,7 +11737,7 @@
         <v>76</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -11751,7 +11755,7 @@
         <v>76</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>76</v>
@@ -11762,11 +11766,11 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -11785,16 +11789,16 @@
         <v>76</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -11844,7 +11848,7 @@
         <v>76</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -11856,13 +11860,13 @@
         <v>76</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>76</v>
@@ -11873,11 +11877,11 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -11896,19 +11900,19 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>76</v>
@@ -11957,7 +11961,7 @@
         <v>76</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -11969,7 +11973,7 @@
         <v>76</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>76</v>
@@ -11986,7 +11990,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12012,10 +12016,10 @@
         <v>104</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12027,7 +12031,7 @@
         <v>76</v>
       </c>
       <c r="R98" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>76</v>
@@ -12045,10 +12049,10 @@
         <v>124</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>76</v>
@@ -12066,7 +12070,7 @@
         <v>76</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>85</v>
@@ -12095,7 +12099,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12121,13 +12125,13 @@
         <v>98</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -12138,7 +12142,7 @@
         <v>76</v>
       </c>
       <c r="R99" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>76</v>
@@ -12177,7 +12181,7 @@
         <v>76</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>85</v>
@@ -12206,7 +12210,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12229,13 +12233,13 @@
         <v>79</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12286,7 +12290,7 @@
         <v>76</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
@@ -12315,7 +12319,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12341,10 +12345,10 @@
         <v>129</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12395,7 +12399,7 @@
         <v>76</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
@@ -12424,7 +12428,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12447,13 +12451,13 @@
         <v>79</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12504,7 +12508,7 @@
         <v>76</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
@@ -12533,7 +12537,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12556,13 +12560,13 @@
         <v>79</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -12613,7 +12617,7 @@
         <v>76</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
@@ -12642,7 +12646,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12668,10 +12672,10 @@
         <v>142</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -12722,7 +12726,7 @@
         <v>76</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>77</v>
@@ -12731,7 +12735,7 @@
         <v>85</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>96</v>
@@ -12751,7 +12755,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12774,13 +12778,13 @@
         <v>76</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -12831,7 +12835,7 @@
         <v>76</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
@@ -12849,7 +12853,7 @@
         <v>76</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>76</v>
@@ -12860,11 +12864,11 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -12883,16 +12887,16 @@
         <v>76</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -12942,7 +12946,7 @@
         <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
@@ -12954,13 +12958,13 @@
         <v>76</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>76</v>
@@ -12971,11 +12975,11 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -12994,19 +12998,19 @@
         <v>79</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>76</v>
@@ -13055,7 +13059,7 @@
         <v>76</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
@@ -13067,7 +13071,7 @@
         <v>76</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>76</v>
@@ -13084,7 +13088,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13107,13 +13111,13 @@
         <v>79</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13164,7 +13168,7 @@
         <v>76</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>85</v>
@@ -13193,7 +13197,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13219,10 +13223,10 @@
         <v>98</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -13273,7 +13277,7 @@
         <v>76</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
@@ -13302,7 +13306,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13325,16 +13329,16 @@
         <v>79</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -13384,7 +13388,7 @@
         <v>76</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
@@ -13413,7 +13417,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13439,13 +13443,13 @@
         <v>129</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -13495,7 +13499,7 @@
         <v>76</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>77</v>
@@ -13524,7 +13528,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13547,16 +13551,16 @@
         <v>79</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -13606,7 +13610,7 @@
         <v>76</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>77</v>
@@ -13635,7 +13639,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13658,19 +13662,19 @@
         <v>79</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>76</v>
@@ -13719,7 +13723,7 @@
         <v>76</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:02:38+00:00</t>
+    <t>2022-09-27T20:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:20:50+00:00</t>
+    <t>2022-09-27T20:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:30:57+00:00</t>
+    <t>2022-09-27T22:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T22:49:39+00:00</t>
+    <t>2022-09-27T23:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:00:34+00:00</t>
+    <t>2022-09-27T23:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:08:58+00:00</t>
+    <t>2022-10-27T10:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T10:56:05+00:00</t>
+    <t>2022-11-23T04:23:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T04:23:36+00:00</t>
+    <t>2022-11-23T11:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:18:03+00:00</t>
+    <t>2022-11-23T11:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:20:15+00:00</t>
+    <t>2022-11-23T15:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T15:17:18+00:00</t>
+    <t>2022-11-28T15:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T15:39:12+00:00</t>
+    <t>2022-11-28T23:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T23:56:31+00:00</t>
+    <t>2022-11-29T11:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:57:57+00:00</t>
+    <t>2022-11-30T13:59:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:59:42+00:00</t>
+    <t>2022-11-30T15:11:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T15:11:20+00:00</t>
+    <t>2022-11-30T15:45:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-08T23:46:44+00:00</t>
+    <t>2023-01-09T00:16:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:19:24+00:00</t>
+    <t>2023-01-11T17:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
